--- a/통신 프로토콜/통신 프로토콜 API.xlsx
+++ b/통신 프로토콜/통신 프로토콜 API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864E3016-9FD0-48A8-94DF-F50A9912C254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0D6B8-DE4E-477C-92B3-E90AAEB63F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
   <si>
     <t>서버</t>
   </si>
@@ -993,13 +993,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>sensorName:detect
-sensorState:on
-sensorState:off
-sensorState:finalEnd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>photolithography</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1075,6 +1068,18 @@
   </si>
   <si>
     <t>4. LIGHT_IR_SENSOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. END_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sensorName:
+INPUT_IR_SENSOR, IMAGE_IR_SENSOR, SONIC_IR_SENSOR_NO1, SONIC_IR_SENSOR_NO2, RELAY_IR_SENSOR, LIGHT_IR_SENSOR, END_TIME
+sensorState:on
+sensorState:off
+sensorState:finalEnd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1546,9 +1551,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1560,21 +1562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1596,6 +1583,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3434,8 +3439,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>501331</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5031918</xdr:colOff>
       <xdr:row>164</xdr:row>
       <xdr:rowOff>106021</xdr:rowOff>
     </xdr:to>
@@ -15599,7 +15604,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>{"sensorName":"LIGHT_IR_SENSOR",</a:t>
+            <a:t>{"sensorName":"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>END_TIME</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17789,41 +17818,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -17866,95 +17895,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="29"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="29"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="29"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="29"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="29"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="29"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="29"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="29"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="29"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="29"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -17962,21 +17991,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -18011,121 +18040,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="F75" s="33" t="s">
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
+      <c r="F75" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
-      <c r="F76" s="34" t="s">
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="F76" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
-      <c r="F77" s="33" t="s">
+      <c r="C77" s="30"/>
+      <c r="D77" s="31"/>
+      <c r="F77" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
-      <c r="F78" s="34" t="s">
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
+      <c r="F78" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
-      <c r="F79" s="34" t="s">
+      <c r="C79" s="30"/>
+      <c r="D79" s="31"/>
+      <c r="F79" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37"/>
-      <c r="F80" s="33" t="s">
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
+      <c r="F80" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="32"/>
-      <c r="F81" s="33" t="s">
+      <c r="C81" s="30"/>
+      <c r="D81" s="31"/>
+      <c r="F81" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="F82" s="33" t="s">
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="F82" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="31"/>
-      <c r="D83" s="32"/>
-      <c r="F83" s="33" t="s">
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
+      <c r="F83" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -18243,58 +18272,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="33"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -18311,106 +18340,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="31"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="31"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="30" t="s">
+      <c r="B115" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="32"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="31"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="32"/>
-      <c r="F116" s="34" t="s">
+      <c r="C116" s="30"/>
+      <c r="D116" s="31"/>
+      <c r="F116" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="34"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="34"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="30" t="s">
+      <c r="B117" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="32"/>
-      <c r="F117" s="33" t="s">
+      <c r="C117" s="30"/>
+      <c r="D117" s="31"/>
+      <c r="F117" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="32"/>
-      <c r="F118" s="34" t="s">
+      <c r="C118" s="30"/>
+      <c r="D118" s="31"/>
+      <c r="F118" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="34"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="34"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
-      <c r="F119" s="34" t="s">
+      <c r="C119" s="30"/>
+      <c r="D119" s="31"/>
+      <c r="F119" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="30" t="s">
+      <c r="B120" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="32"/>
-      <c r="F120" s="33" t="s">
+      <c r="C120" s="30"/>
+      <c r="D120" s="31"/>
+      <c r="F120" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="32"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="31"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -18527,18 +18556,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -18553,22 +18586,18 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18581,14 +18610,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M216" sqref="M216"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="74.625" customWidth="1"/>
     <col min="19" max="19" width="18.625" customWidth="1"/>
     <col min="20" max="20" width="19.25" customWidth="1"/>
     <col min="21" max="21" width="16.75" customWidth="1"/>
@@ -18619,7 +18648,7 @@
       <c r="L4" s="47"/>
       <c r="M4" s="48"/>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
@@ -18636,7 +18665,7 @@
       <c r="L5" s="50"/>
       <c r="M5" s="51"/>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
@@ -18650,7 +18679,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="8"/>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
@@ -18663,7 +18692,7 @@
       <c r="L7" s="24"/>
       <c r="M7" s="8"/>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
@@ -18676,7 +18705,7 @@
       <c r="L8" s="24"/>
       <c r="M8" s="8"/>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
@@ -18689,7 +18718,7 @@
       <c r="L9" s="24"/>
       <c r="M9" s="8"/>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
@@ -18701,6 +18730,9 @@
       <c r="I10" s="8"/>
       <c r="L10" s="24"/>
       <c r="M10" s="8"/>
+      <c r="P10" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
@@ -18724,7 +18756,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="99" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="C12" s="22"/>
       <c r="E12" s="8"/>
@@ -18737,10 +18769,10 @@
         <v>121</v>
       </c>
       <c r="Q12" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="S12" s="26" t="s">
         <v>128</v>
@@ -18791,7 +18823,7 @@
         <v>154</v>
       </c>
       <c r="Q15" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
@@ -18807,7 +18839,7 @@
         <v>155</v>
       </c>
       <c r="Q16" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
@@ -18823,7 +18855,7 @@
         <v>156</v>
       </c>
       <c r="Q17" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
@@ -18839,7 +18871,7 @@
         <v>157</v>
       </c>
       <c r="Q18" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
@@ -18996,7 +19028,7 @@
         <v>158</v>
       </c>
       <c r="R31" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S31" s="26" t="s">
         <v>128</v>
@@ -19018,7 +19050,7 @@
         <v>158</v>
       </c>
       <c r="R32" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S32" s="26" t="s">
         <v>153</v>
@@ -19040,7 +19072,7 @@
         <v>162</v>
       </c>
       <c r="Q33" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S33" s="26" t="s">
         <v>153</v>
@@ -19127,7 +19159,7 @@
       <c r="L40" s="24"/>
       <c r="M40" s="8"/>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
@@ -19140,7 +19172,7 @@
       <c r="L41" s="24"/>
       <c r="M41" s="8"/>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
@@ -19153,7 +19185,7 @@
       <c r="L42" s="24"/>
       <c r="M42" s="8"/>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
@@ -19166,7 +19198,7 @@
       <c r="L43" s="24"/>
       <c r="M43" s="8"/>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
@@ -19179,7 +19211,7 @@
       <c r="L44" s="24"/>
       <c r="M44" s="8"/>
       <c r="P44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
@@ -19192,7 +19224,7 @@
       <c r="L45" s="24"/>
       <c r="M45" s="8"/>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
@@ -19986,7 +20018,7 @@
       <c r="L120" s="24"/>
       <c r="M120" s="8"/>
       <c r="P120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.3">
@@ -19999,7 +20031,7 @@
       <c r="L121" s="24"/>
       <c r="M121" s="8"/>
       <c r="P121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.3">
@@ -20012,7 +20044,7 @@
       <c r="L122" s="24"/>
       <c r="M122" s="8"/>
       <c r="P122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.3">
@@ -20025,7 +20057,7 @@
       <c r="L123" s="24"/>
       <c r="M123" s="8"/>
       <c r="P123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.3">
@@ -20038,7 +20070,7 @@
       <c r="L124" s="24"/>
       <c r="M124" s="8"/>
       <c r="P124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.3">
@@ -20051,7 +20083,7 @@
       <c r="L125" s="24"/>
       <c r="M125" s="8"/>
       <c r="P125" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.3">

--- a/통신 프로토콜/통신 프로토콜 API.xlsx
+++ b/통신 프로토콜/통신 프로토콜 API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\통신 프로토콜\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0D6B8-DE4E-477C-92B3-E90AAEB63F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36008A42-7591-4404-AE77-1428393BA572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로토콜 명세(수정 필요)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="185">
   <si>
     <t>서버</t>
   </si>
@@ -1087,7 +1087,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,8 +1197,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,6 +1238,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1455,15 +1484,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1551,6 +1583,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1562,6 +1597,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1584,24 +1634,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,8 +1652,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1913,14 +1958,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>컨베이어벨트에 재료 투입</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1991,7 +2036,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2002,7 +2047,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2010,7 +2055,7 @@
             <a:t>물체 감지</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2018,14 +2063,14 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 0 -&gt; 1)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -2149,7 +2194,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2157,7 +2202,7 @@
             <a:t>LOT</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2165,7 +2210,7 @@
             <a:t> ID </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2173,7 +2218,7 @@
             <a:t>부여 및 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2181,7 +2226,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2189,7 +2234,7 @@
             <a:t>저장 완료</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2200,14 +2245,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>시작 버튼 활성화 및 누름</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -2384,7 +2429,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2392,7 +2437,7 @@
             <a:t>PI1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2400,7 +2445,7 @@
             <a:t>이 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2408,7 +2453,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2416,7 +2461,7 @@
             <a:t>컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2424,14 +2469,14 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 구동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -2499,7 +2544,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2520,37 +2565,37 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" baseline="0">
               <a:effectLst/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>Route:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" baseline="0">
               <a:effectLst/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>pi/sensor/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" baseline="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>0/</a:t>
@@ -2575,13 +2620,13 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" baseline="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>{"</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2612,7 +2657,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2623,7 +2668,7 @@
             </a:rPr>
             <a:t>"sensorState:"on"}</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -2742,7 +2787,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2763,12 +2808,12 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>ACK: { "msg":"ok",  "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -2802,7 +2847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="6010275"/>
+          <a:off x="4914900" y="6429375"/>
           <a:ext cx="2514600" cy="440055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2834,12 +2879,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2850,7 +2895,7 @@
             </a:rPr>
             <a:t>GET</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -2863,7 +2908,7 @@
         <a:p>
           <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2874,62 +2919,7 @@
             </a:rPr>
             <a:t>Route: pi/start</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:effectLst/>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3048,7 +3038,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3069,7 +3059,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3080,7 +3070,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -3088,28 +3078,6 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3143,7 +3111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3438818" y="2116455"/>
-          <a:ext cx="1363981" cy="3398520"/>
+          <a:ext cx="1363981" cy="3817620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3177,7 +3145,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3185,7 +3153,7 @@
             <a:t>LOT</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3193,7 +3161,7 @@
             <a:t> ID </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3201,14 +3169,14 @@
             <a:t>부여 및 </a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3216,14 +3184,14 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>저장 중</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="800">
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -3397,7 +3365,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3418,12 +3386,12 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>ACK: {"msg":"wait", "statusCode":5xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -3536,7 +3504,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3547,7 +3515,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3555,7 +3523,7 @@
             <a:t>물체 감지 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3563,7 +3531,7 @@
             <a:t>( 0  </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3636,7 +3604,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3644,7 +3612,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3652,14 +3620,14 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정 제조 시간 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -3668,14 +3636,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>랜덤값 추출</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -3684,14 +3652,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>공정 시작 시간</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -3759,7 +3727,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3780,7 +3748,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3811,7 +3779,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3822,7 +3790,7 @@
             </a:rPr>
             <a:t>Route: pi/process/1/{processCmd:start, processName:photolithography, processValue:0.0}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -3947,7 +3915,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3968,7 +3936,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3979,7 +3947,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -4007,7 +3975,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -4076,7 +4044,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4084,7 +4052,7 @@
             <a:t>1 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4092,14 +4060,14 @@
             <a:t>차 공정 </a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4107,7 +4075,7 @@
             <a:t>시작 시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4115,14 +4083,14 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 저장</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4131,7 +4099,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4139,7 +4107,7 @@
             <a:t>제조 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4147,14 +4115,14 @@
             <a:t>ON </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>화면 전환</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4225,7 +4193,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4236,7 +4204,7 @@
             <a:t> 랜덤값 만큼 대기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4266,7 +4234,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4277,7 +4245,7 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4288,7 +4256,7 @@
             <a:t>차 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4298,7 +4266,7 @@
             </a:rPr>
             <a:t>공정 센서값 추출</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4310,7 +4278,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4321,14 +4289,14 @@
             <a:t>공정 종료 시간</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4396,7 +4364,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4417,7 +4385,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4448,7 +4416,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4460,7 +4428,7 @@
             <a:t>Route: pi/process/1/{processCmd:end,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4472,7 +4440,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4484,7 +4452,7 @@
             <a:t>processName:height,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4496,7 +4464,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4527,7 +4495,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -4538,7 +4506,7 @@
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -4666,7 +4634,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4674,14 +4642,14 @@
             <a:t>1 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4690,7 +4658,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4698,7 +4666,7 @@
             <a:t>종료시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4706,14 +4674,14 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>저장 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4722,7 +4690,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4733,7 +4701,7 @@
             <a:t>소요시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4744,7 +4712,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4755,7 +4723,7 @@
             <a:t>저장</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4765,7 +4733,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4776,7 +4744,7 @@
             <a:t>센서값 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4787,7 +4755,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4801,7 +4769,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4812,7 +4780,7 @@
             <a:t>불량 여부 센서값</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4823,7 +4791,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4834,7 +4802,7 @@
             <a:t>판</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -4844,7 +4812,7 @@
             </a:rPr>
             <a:t>단</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4968,7 +4936,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -4989,7 +4957,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -5000,7 +4968,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"pass/fail", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -5028,7 +4996,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -5097,7 +5065,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5105,7 +5073,7 @@
             <a:t>답변에 따라 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5113,14 +5081,14 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정 불량 검출 서보모터 작동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -5191,7 +5159,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5199,7 +5167,7 @@
             <a:t>컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5207,14 +5175,14 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 구동 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -5285,7 +5253,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -5293,22 +5261,25 @@
             <a:t>컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 슬로우</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>정지 후 슬로우</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -5323,7 +5294,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -5344,8 +5315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4924425" y="4105275"/>
-          <a:ext cx="2514600" cy="428624"/>
+          <a:off x="4924425" y="4448175"/>
+          <a:ext cx="2514600" cy="504824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5376,7 +5347,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5397,7 +5368,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>GET</a:t>
@@ -5422,19 +5393,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>Route:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0" baseline="0">
               <a:effectLst/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:effectLst/>
             </a:rPr>
             <a:t>pi/start</a:t>
@@ -5555,7 +5526,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -5576,7 +5547,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -5588,7 +5559,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -5600,7 +5571,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -5631,7 +5602,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -5662,7 +5633,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -5673,7 +5644,7 @@
             </a:rPr>
             <a:t>"sensorState:"on"}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -5819,7 +5790,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -5830,7 +5801,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -5905,14 +5876,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>물체 감지  화면 전환</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -5980,7 +5951,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -6001,7 +5972,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6013,7 +5984,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6025,7 +5996,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6056,7 +6027,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6068,7 +6039,7 @@
             <a:t>{"sensorName":"</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6080,7 +6051,7 @@
             <a:t>IMAGE_IR_SENSOR</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6111,7 +6082,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6122,7 +6093,7 @@
             </a:rPr>
             <a:t> "sensorState:"off"}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -6247,7 +6218,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -6268,7 +6239,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6280,7 +6251,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6292,7 +6263,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6323,7 +6294,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6335,7 +6306,7 @@
             <a:t>{"sensorName":"</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6347,7 +6318,7 @@
             <a:t>SONIC_IR_SENSOR_NO1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6378,7 +6349,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -6389,7 +6360,7 @@
             </a:rPr>
             <a:t>"sensorState:"on"}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -6517,14 +6488,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>물체 감지  화면 전환</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6533,14 +6504,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>제조 현황 화면 전환</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6611,7 +6582,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6619,7 +6590,7 @@
             <a:t>전체 공정 시작 시간 저장</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6630,14 +6601,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>시작 버튼 비활성화</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6708,7 +6679,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6719,7 +6690,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6727,7 +6698,7 @@
             <a:t>물체 감지</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6735,14 +6706,14 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(0 -&gt; 1)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6750,7 +6721,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6821,7 +6792,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6829,7 +6800,7 @@
             <a:t>컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6837,14 +6808,14 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 정지</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -6915,7 +6886,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -6923,14 +6894,14 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정 센서값 추출</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -7001,7 +6972,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7012,7 +6983,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7020,7 +6991,7 @@
             <a:t>물체 감지</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7028,14 +6999,14 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>(0 -&gt; 1)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -7043,7 +7014,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -7111,7 +7082,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -7132,7 +7103,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7143,7 +7114,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -7151,28 +7122,6 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
-            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -7295,7 +7244,7 @@
         <a:p>
           <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7307,7 +7256,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7319,7 +7268,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7330,14 +7279,14 @@
             </a:rPr>
             <a:t>Route: pi/sensor/2/</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7348,14 +7297,14 @@
             </a:rPr>
             <a:t>{"sensorName":"SONIC_IR_SENSOR_NO1", </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7366,7 +7315,7 @@
             </a:rPr>
             <a:t>"sensorState:"on"}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -7388,7 +7337,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -7463,14 +7412,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>물체 감지  화면전환</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -7594,7 +7543,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7602,7 +7551,7 @@
             <a:t>PI2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7610,7 +7559,7 @@
             <a:t>가 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7618,7 +7567,7 @@
             <a:t>컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7626,14 +7575,14 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 정지</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -7704,7 +7653,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7712,7 +7661,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7720,14 +7669,14 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정 제조 시간 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -7736,14 +7685,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>랜덤값 추출</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -7768,7 +7717,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -7779,7 +7728,7 @@
             </a:rPr>
             <a:t>공정 시작 시간</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -7848,7 +7797,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -7869,7 +7818,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -7880,7 +7829,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -7908,7 +7857,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -7974,7 +7923,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -7995,7 +7944,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8026,7 +7975,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8037,7 +7986,7 @@
             </a:rPr>
             <a:t>Route: pi/process/2/{processCmd:start, processName:etching, processValue:0.0}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -8112,7 +8061,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8120,14 +8069,14 @@
             <a:t>2 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -8136,7 +8085,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8144,7 +8093,7 @@
             <a:t>시작시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8152,14 +8101,14 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>저장 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -8167,7 +8116,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -8344,7 +8293,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -8365,7 +8314,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8376,7 +8325,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -8404,7 +8353,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -8473,7 +8422,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8484,7 +8433,7 @@
             <a:t> 랜덤값 만큼 대기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8514,7 +8463,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8525,7 +8474,7 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8536,7 +8485,7 @@
             <a:t>차 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8546,7 +8495,7 @@
             </a:rPr>
             <a:t>공정 센서값 추출</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -8558,7 +8507,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8569,14 +8518,14 @@
             <a:t>공정 종료 시간</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -8644,7 +8593,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -8665,7 +8614,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8696,7 +8645,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8708,7 +8657,7 @@
             <a:t>Route: pi/process/2/{processCmd:end,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8720,7 +8669,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8732,7 +8681,7 @@
             <a:t>processName:etching,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8744,7 +8693,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8775,7 +8724,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -8786,7 +8735,7 @@
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -8914,7 +8863,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8922,14 +8871,14 @@
             <a:t>2 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -8938,7 +8887,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8946,7 +8895,7 @@
             <a:t>종료시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8954,14 +8903,14 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>저장 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -8970,7 +8919,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8981,7 +8930,7 @@
             <a:t>소요시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -8992,7 +8941,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9003,7 +8952,7 @@
             <a:t>저장</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9013,7 +8962,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9024,7 +8973,7 @@
             <a:t>센서값 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9035,7 +8984,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9049,7 +8998,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9060,7 +9009,7 @@
             <a:t>불량 여부 기준 센서값</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9071,7 +9020,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9082,7 +9031,7 @@
             <a:t>판</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9208,7 +9157,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -9229,7 +9178,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9240,7 +9189,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"pass/fail", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -9268,7 +9217,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -9337,7 +9286,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9345,7 +9294,7 @@
             <a:t>답변에 따라 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9353,14 +9302,14 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정 불량 검출 서보모터 작동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -9431,7 +9380,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9439,7 +9388,7 @@
             <a:t>컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9447,14 +9396,14 @@
             <a:t>1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 구동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -9525,7 +9474,7 @@
         <a:p>
           <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9537,7 +9486,7 @@
             <a:t>SONIC_IR_SENSOR_NO2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9545,7 +9494,7 @@
             <a:t>물체 감지 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -9553,14 +9502,14 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>1 -&gt; 0)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -9681,7 +9630,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -9702,7 +9651,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9714,7 +9663,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9726,7 +9675,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9757,7 +9706,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9788,7 +9737,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9800,7 +9749,7 @@
             <a:t>"sensorState:"</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9812,7 +9761,7 @@
             <a:t>off</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9827,7 +9776,7 @@
         <a:p>
           <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9838,14 +9787,14 @@
             </a:rPr>
             <a:t>GET</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9857,7 +9806,7 @@
             <a:t>Route:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9869,7 +9818,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -9946,14 +9895,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>물체 감지  화면전환</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -10074,7 +10023,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -10095,7 +10044,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10107,7 +10056,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10119,7 +10068,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10150,7 +10099,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10162,7 +10111,7 @@
             <a:t>GET ACK:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10174,7 +10123,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10185,7 +10134,7 @@
             </a:rPr>
             <a:t>{"msg":"pass/fail", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -10207,7 +10156,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -10235,7 +10184,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -10304,7 +10253,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10316,7 +10265,7 @@
             <a:t>GET ACK </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10327,7 +10276,7 @@
             </a:rPr>
             <a:t>에 따라</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -10340,7 +10289,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10352,7 +10301,7 @@
             <a:t>PI3</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10364,7 +10313,7 @@
             <a:t>이 컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10376,7 +10325,7 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10388,7 +10337,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10399,7 +10348,7 @@
             </a:rPr>
             <a:t>구동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="400">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="400" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -10470,7 +10419,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10481,7 +10430,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10489,7 +10438,7 @@
             <a:t>물체 감지 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -10497,14 +10446,14 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>0 -&gt; 1)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -10625,7 +10574,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -10646,7 +10595,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10658,7 +10607,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10670,7 +10619,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10682,7 +10631,7 @@
             <a:t>Route:</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10694,7 +10643,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10725,7 +10674,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10737,7 +10686,7 @@
             <a:t>{"sensorName":"</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10749,7 +10698,7 @@
             <a:t>RELAY_IR_SENSOR</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10780,7 +10729,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -10791,7 +10740,7 @@
             </a:rPr>
             <a:t> "sensorState:"on"}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -10866,14 +10815,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>물체 감지  화면전환</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -10994,7 +10943,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -11015,7 +10964,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -11026,7 +10975,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -11054,7 +11003,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -11123,7 +11072,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11131,7 +11080,7 @@
             <a:t>컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11139,14 +11088,14 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 정지</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -11217,7 +11166,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11225,7 +11174,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11233,14 +11182,14 @@
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정 제조 시간 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -11249,14 +11198,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>랜덤값 추출</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -11265,14 +11214,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>공정 시작 시간</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -11393,7 +11342,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -11414,7 +11363,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -11445,7 +11394,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -11456,7 +11405,7 @@
             </a:rPr>
             <a:t>Route: pi/process/3/{processCmd:start, processName:eds, processValue:0.0}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -11581,7 +11530,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -11602,7 +11551,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -11613,7 +11562,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -11641,7 +11590,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -11710,7 +11659,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11718,7 +11667,7 @@
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11726,14 +11675,14 @@
             <a:t>차 공정 </a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11741,7 +11690,7 @@
             <a:t>시작 시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11749,14 +11698,14 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 저장</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -11827,7 +11776,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11838,7 +11787,7 @@
             <a:t> 랜덤값 만큼 대기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11868,7 +11817,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11879,7 +11828,7 @@
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11890,7 +11839,7 @@
             <a:t>차 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11900,7 +11849,7 @@
             </a:rPr>
             <a:t>공정 센서값 추출</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -11912,7 +11861,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -11923,14 +11872,14 @@
             <a:t>공정 종료 시간</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -11998,7 +11947,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -12019,7 +11968,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -12050,7 +11999,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -12062,7 +12011,7 @@
             <a:t>Route: pi/process/3/{processCmd:end,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -12074,7 +12023,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -12086,7 +12035,7 @@
             <a:t>processName:eds,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -12098,7 +12047,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -12129,7 +12078,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -12140,7 +12089,7 @@
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -12268,7 +12217,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12276,14 +12225,14 @@
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -12292,7 +12241,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12300,7 +12249,7 @@
             <a:t>종료시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12308,14 +12257,14 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>저장 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -12324,7 +12273,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12335,7 +12284,7 @@
             <a:t>소요시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12346,7 +12295,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12357,7 +12306,7 @@
             <a:t>저장</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12367,7 +12316,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12378,7 +12327,7 @@
             <a:t>센서값 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12389,7 +12338,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12403,7 +12352,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12414,7 +12363,7 @@
             <a:t>불량 여부 기준 센서값</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12425,7 +12374,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12436,7 +12385,7 @@
             <a:t>판</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12565,7 +12514,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12573,7 +12522,7 @@
             <a:t>답변에 따라 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12581,14 +12530,14 @@
             <a:t>3</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정 불량 검출 서보모터 작동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -12659,7 +12608,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12667,7 +12616,7 @@
             <a:t>컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12675,14 +12624,14 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 구동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -12753,7 +12702,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12764,7 +12713,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12772,7 +12721,7 @@
             <a:t>물체 감지 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12780,14 +12729,14 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>0 -&gt; 1)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -12858,7 +12807,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12866,7 +12815,7 @@
             <a:t>컨베이어벨트</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -12874,14 +12823,14 @@
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 정지</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -12949,7 +12898,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -12970,7 +12919,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -12981,7 +12930,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"pass/fail", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -13009,7 +12958,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -13128,7 +13077,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -13149,7 +13098,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -13161,7 +13110,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -13173,7 +13122,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -13204,7 +13153,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -13235,7 +13184,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -13246,7 +13195,7 @@
             </a:rPr>
             <a:t>"sensorState:"on"}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -13321,14 +13270,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>물체 감지  화면전환</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -13449,7 +13398,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -13470,7 +13419,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -13481,7 +13430,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -13509,7 +13458,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -13631,7 +13580,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -13639,7 +13588,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -13647,14 +13596,14 @@
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정 제조 시간 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -13663,14 +13612,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>랜덤값 추출</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -13679,14 +13628,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>공정 시작시간</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -13807,7 +13756,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -13828,7 +13777,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -13839,7 +13788,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -13867,7 +13816,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -13936,7 +13885,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -13944,14 +13893,14 @@
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>차 공정 시작 시간</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -13960,7 +13909,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -13968,14 +13917,14 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 저장</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -14046,7 +13995,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14057,7 +14006,7 @@
             <a:t> 랜덤값 만큼 대기</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14087,7 +14036,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14101,7 +14050,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14111,7 +14060,7 @@
             </a:rPr>
             <a:t>  </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -14238,7 +14187,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14249,7 +14198,7 @@
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14259,7 +14208,7 @@
             </a:rPr>
             <a:t>차 공정 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -14271,7 +14220,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14282,7 +14231,7 @@
             <a:t>종료시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14293,7 +14242,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14307,7 +14256,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14318,7 +14267,7 @@
             <a:t>소요시간 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14329,7 +14278,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14340,7 +14289,7 @@
             <a:t>저장</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14350,7 +14299,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14361,7 +14310,7 @@
             <a:t>센서값 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14372,7 +14321,7 @@
             <a:t>DB </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14386,7 +14335,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14397,7 +14346,7 @@
             <a:t>불량 여부 기준 센서값</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14408,7 +14357,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14418,7 +14367,7 @@
             </a:rPr>
             <a:t>판단</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -14430,7 +14379,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14440,7 +14389,7 @@
             </a:rPr>
             <a:t>등급 판단</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -14452,7 +14401,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -14462,7 +14411,7 @@
             </a:rPr>
             <a:t>모터 방향 설정</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -14586,7 +14535,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -14607,7 +14556,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -14618,7 +14567,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"left", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -14693,14 +14642,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>등급 판단 서보모터 작동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -14771,14 +14720,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>불량 여부 서보모터 작동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -14849,14 +14798,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>컨베이어벨트 구동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -14924,7 +14873,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -14945,7 +14894,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -14976,7 +14925,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -14987,7 +14936,7 @@
             </a:rPr>
             <a:t>Route: pi/process/4/{processCmd:start, processName:euvLithography, processValue:0.0}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -15059,7 +15008,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -15080,7 +15029,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15111,7 +15060,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15123,7 +15072,7 @@
             <a:t>Route: pi/process/</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15135,7 +15084,7 @@
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15147,7 +15096,7 @@
             <a:t>/{processCmd:end,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15159,7 +15108,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15171,7 +15120,7 @@
             <a:t>processName:euvLithography,</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15183,7 +15132,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15195,7 +15144,7 @@
             <a:t>processValue:12.12</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15206,7 +15155,7 @@
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -15281,7 +15230,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -15296,7 +15245,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -15311,14 +15260,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>의 답변에 따른 </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -15327,7 +15276,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -15335,7 +15284,7 @@
             <a:t>시간 만큼 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -15343,7 +15292,7 @@
             <a:t>DC</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -15351,14 +15300,14 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>구동</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -15366,7 +15315,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -15375,7 +15324,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -15383,7 +15332,7 @@
             <a:t>DC </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -15391,14 +15340,14 @@
             <a:t>모터 구동</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t> 종료</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -15519,7 +15468,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -15540,7 +15489,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15552,7 +15501,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15564,7 +15513,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15595,7 +15544,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15604,31 +15553,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>{"sensorName":"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>END_TIME</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>",</a:t>
+            <a:t>{"sensorName":"END_TIME",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15650,7 +15575,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15661,7 +15586,7 @@
             </a:rPr>
             <a:t> "sensorState:"finalEnd"}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -15786,7 +15711,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -15807,7 +15732,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -15818,7 +15743,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -15846,7 +15771,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -15915,14 +15840,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>전체 공정 종료 시간 저장</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -16043,7 +15968,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -16064,7 +15989,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -16076,7 +16001,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -16088,7 +16013,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -16119,7 +16044,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -16150,7 +16075,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -16161,7 +16086,7 @@
             </a:rPr>
             <a:t>"sensorState:"off"}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -16236,14 +16161,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>물체 감지  화면전환</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0" baseline="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -16314,14 +16239,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>공정 초기화</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800">
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="800" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -16408,7 +16333,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -16439,7 +16364,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -16447,7 +16372,7 @@
             </a:rPr>
             <a:t>(1 -&gt; 0)</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -16572,7 +16497,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -16764,7 +16689,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -16795,7 +16720,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -16803,7 +16728,7 @@
             </a:rPr>
             <a:t>(1 -&gt; 0)</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -16928,7 +16853,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="800" baseline="0">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -17101,7 +17026,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -17122,7 +17047,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -17134,7 +17059,7 @@
             <a:t>POST</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -17146,7 +17071,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -17177,7 +17102,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -17208,7 +17133,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -17219,7 +17144,7 @@
             </a:rPr>
             <a:t> "sensorState:"off"}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -17344,7 +17269,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -17365,7 +17290,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -17376,7 +17301,7 @@
             </a:rPr>
             <a:t>ACK: {"msg":"ok", "statusCode":2xx}</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -17404,7 +17329,7 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900">
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="900" b="0">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -17818,41 +17743,41 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="F30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
       <c r="F31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="F32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
       <c r="F33" t="s">
         <v>102</v>
       </c>
@@ -17895,95 +17820,95 @@
       </c>
     </row>
     <row r="44" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="47" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
     </row>
     <row r="48" spans="2:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="44"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
     </row>
     <row r="49" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="44"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
     </row>
     <row r="50" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="44"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
     </row>
     <row r="51" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="44"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
     </row>
     <row r="52" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="44"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
     </row>
     <row r="53" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="44"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
     </row>
     <row r="54" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="44"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
     </row>
     <row r="55" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="44"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
     </row>
     <row r="56" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="44"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
     </row>
     <row r="57" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="44"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
     </row>
     <row r="58" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="44"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
     </row>
     <row r="59" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="44"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
     </row>
     <row r="60" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="44"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
@@ -17991,21 +17916,21 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
     </row>
     <row r="68" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="s">
@@ -18040,121 +17965,121 @@
       </c>
     </row>
     <row r="75" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
-      <c r="F75" s="32" t="s">
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="F75" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
     </row>
     <row r="76" spans="2:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="40"/>
-      <c r="D76" s="41"/>
-      <c r="F76" s="42" t="s">
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+      <c r="F76" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
     </row>
     <row r="77" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="30"/>
-      <c r="D77" s="31"/>
-      <c r="F77" s="32" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="F77" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
     </row>
     <row r="78" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
-      <c r="F78" s="42" t="s">
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="F78" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
     </row>
     <row r="79" spans="2:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="29" t="s">
+      <c r="B79" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="31"/>
-      <c r="F79" s="42" t="s">
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="F79" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
     </row>
     <row r="80" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="40"/>
-      <c r="D80" s="41"/>
-      <c r="F80" s="32" t="s">
+      <c r="C80" s="36"/>
+      <c r="D80" s="37"/>
+      <c r="F80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
     </row>
     <row r="81" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="31"/>
-      <c r="F81" s="32" t="s">
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="F81" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
-      <c r="F82" s="32" t="s">
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="F82" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
     </row>
     <row r="83" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="31"/>
-      <c r="F83" s="32" t="s">
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="F83" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G83" s="32"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="32"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16" t="s">
@@ -18272,58 +18197,58 @@
       </c>
     </row>
     <row r="97" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="44" t="s">
+      <c r="B97" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
     </row>
     <row r="102" spans="2:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="32" t="s">
+      <c r="B102" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
     </row>
     <row r="109" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B109" s="6" t="s">
@@ -18340,106 +18265,106 @@
       </c>
     </row>
     <row r="113" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="32"/>
       <c r="F113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="114" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C114" s="30"/>
-      <c r="D114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
       <c r="F114" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="29" t="s">
+      <c r="B115" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="30"/>
-      <c r="D115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
       <c r="F115" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C116" s="30"/>
-      <c r="D116" s="31"/>
-      <c r="F116" s="42" t="s">
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="F116" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
     </row>
     <row r="117" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="31"/>
-      <c r="F117" s="32" t="s">
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="F117" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
     </row>
     <row r="118" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="30"/>
-      <c r="D118" s="31"/>
-      <c r="F118" s="42" t="s">
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="F118" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
     </row>
     <row r="119" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C119" s="30"/>
-      <c r="D119" s="31"/>
-      <c r="F119" s="42" t="s">
+      <c r="C119" s="31"/>
+      <c r="D119" s="32"/>
+      <c r="F119" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
     </row>
     <row r="120" spans="2:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="31"/>
-      <c r="F120" s="32" t="s">
+      <c r="C120" s="31"/>
+      <c r="D120" s="32"/>
+      <c r="F120" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="33"/>
     </row>
     <row r="121" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="32"/>
       <c r="F121" t="s">
         <v>72</v>
       </c>
@@ -18556,22 +18481,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B97:D100"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B102:D107"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="F119:I119"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
@@ -18586,18 +18507,22 @@
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B97:D100"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B102:D107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18610,8 +18535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="D48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18755,6 +18680,7 @@
       <c r="S11" s="27" t="s">
         <v>124</v>
       </c>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="2:20" ht="99" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
@@ -18765,10 +18691,10 @@
       <c r="I12" s="8"/>
       <c r="L12" s="24"/>
       <c r="M12" s="8"/>
-      <c r="P12" t="s">
+      <c r="P12" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="Q12" s="53" t="s">
         <v>170</v>
       </c>
       <c r="R12" s="26" t="s">
@@ -18787,10 +18713,10 @@
       <c r="I13" s="8"/>
       <c r="L13" s="24"/>
       <c r="M13" s="8"/>
-      <c r="P13" t="s">
+      <c r="P13" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="54" t="s">
         <v>126</v>
       </c>
       <c r="S13" s="26" t="s">
@@ -18819,12 +18745,6 @@
       <c r="I15" s="8"/>
       <c r="L15" s="24"/>
       <c r="M15" s="8"/>
-      <c r="O15" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
@@ -18835,12 +18755,6 @@
       <c r="I16" s="8"/>
       <c r="L16" s="24"/>
       <c r="M16" s="8"/>
-      <c r="O16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="26" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
@@ -18851,12 +18765,6 @@
       <c r="I17" s="8"/>
       <c r="L17" s="24"/>
       <c r="M17" s="8"/>
-      <c r="O17" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="26" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
@@ -18867,12 +18775,6 @@
       <c r="I18" s="8"/>
       <c r="L18" s="24"/>
       <c r="M18" s="8"/>
-      <c r="O18" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
@@ -18963,9 +18865,6 @@
       <c r="I27" s="8"/>
       <c r="L27" s="24"/>
       <c r="M27" s="8"/>
-      <c r="O27" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
@@ -18976,9 +18875,6 @@
       <c r="I28" s="8"/>
       <c r="L28" s="24"/>
       <c r="M28" s="8"/>
-      <c r="O28" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
@@ -19011,6 +18907,7 @@
       <c r="S30" s="27" t="s">
         <v>124</v>
       </c>
+      <c r="T30" s="55"/>
     </row>
     <row r="31" spans="2:20" ht="66" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
@@ -19158,9 +19055,6 @@
       <c r="I40" s="8"/>
       <c r="L40" s="24"/>
       <c r="M40" s="8"/>
-      <c r="P40" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
@@ -19171,9 +19065,6 @@
       <c r="I41" s="8"/>
       <c r="L41" s="24"/>
       <c r="M41" s="8"/>
-      <c r="P41" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
@@ -19184,9 +19075,6 @@
       <c r="I42" s="8"/>
       <c r="L42" s="24"/>
       <c r="M42" s="8"/>
-      <c r="P42" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
@@ -19197,9 +19085,6 @@
       <c r="I43" s="8"/>
       <c r="L43" s="24"/>
       <c r="M43" s="8"/>
-      <c r="P43" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
@@ -19210,9 +19095,6 @@
       <c r="I44" s="8"/>
       <c r="L44" s="24"/>
       <c r="M44" s="8"/>
-      <c r="P44" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
@@ -19223,9 +19105,6 @@
       <c r="I45" s="8"/>
       <c r="L45" s="24"/>
       <c r="M45" s="8"/>
-      <c r="P45" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
@@ -19891,6 +19770,8 @@
       <c r="S110" s="27" t="s">
         <v>124</v>
       </c>
+      <c r="T110" s="27"/>
+      <c r="U110" s="55"/>
     </row>
     <row r="111" spans="2:21" ht="66" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
@@ -20614,7 +20495,7 @@
       <c r="K176" s="19"/>
       <c r="M176" s="8"/>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="22"/>
       <c r="E177" s="8"/>
@@ -20625,7 +20506,7 @@
       <c r="K177" s="19"/>
       <c r="M177" s="8"/>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="22"/>
       <c r="E178" s="8"/>
@@ -20636,7 +20517,7 @@
       <c r="K178" s="19"/>
       <c r="M178" s="8"/>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B179" s="9"/>
       <c r="C179" s="22"/>
       <c r="E179" s="8"/>
@@ -20647,7 +20528,7 @@
       <c r="K179" s="19"/>
       <c r="M179" s="8"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B180" s="9"/>
       <c r="C180" s="22"/>
       <c r="E180" s="8"/>
@@ -20657,8 +20538,14 @@
       <c r="J180" s="9"/>
       <c r="K180" s="19"/>
       <c r="M180" s="8"/>
-    </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O180" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q180" s="26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B181" s="9"/>
       <c r="C181" s="22"/>
       <c r="E181" s="8"/>
@@ -20668,8 +20555,14 @@
       <c r="J181" s="9"/>
       <c r="K181" s="19"/>
       <c r="M181" s="8"/>
-    </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O181" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q181" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B182" s="9"/>
       <c r="C182" s="22"/>
       <c r="E182" s="8"/>
@@ -20679,8 +20572,14 @@
       <c r="J182" s="9"/>
       <c r="K182" s="19"/>
       <c r="M182" s="8"/>
-    </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O182" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q182" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B183" s="9"/>
       <c r="C183" s="22"/>
       <c r="E183" s="8"/>
@@ -20690,8 +20589,14 @@
       <c r="J183" s="9"/>
       <c r="K183" s="19"/>
       <c r="M183" s="8"/>
-    </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O183" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q183" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B184" s="9"/>
       <c r="C184" s="22"/>
       <c r="E184" s="8"/>
@@ -20702,7 +20607,7 @@
       <c r="K184" s="19"/>
       <c r="M184" s="8"/>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B185" s="9"/>
       <c r="C185" s="22"/>
       <c r="E185" s="8"/>
@@ -20713,7 +20618,7 @@
       <c r="K185" s="19"/>
       <c r="M185" s="8"/>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B186" s="9"/>
       <c r="C186" s="22"/>
       <c r="E186" s="8"/>
@@ -20724,7 +20629,7 @@
       <c r="K186" s="19"/>
       <c r="M186" s="8"/>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B187" s="9"/>
       <c r="C187" s="22"/>
       <c r="E187" s="8"/>
@@ -20734,8 +20639,11 @@
       <c r="J187" s="9"/>
       <c r="K187" s="19"/>
       <c r="M187" s="8"/>
-    </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O187" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B188" s="9"/>
       <c r="C188" s="22"/>
       <c r="E188" s="8"/>
@@ -20745,8 +20653,11 @@
       <c r="J188" s="9"/>
       <c r="K188" s="19"/>
       <c r="M188" s="8"/>
-    </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O188" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B189" s="9"/>
       <c r="C189" s="22"/>
       <c r="E189" s="8"/>
@@ -20757,7 +20668,7 @@
       <c r="K189" s="19"/>
       <c r="M189" s="8"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B190" s="9"/>
       <c r="C190" s="22"/>
       <c r="E190" s="8"/>
@@ -20768,7 +20679,7 @@
       <c r="K190" s="19"/>
       <c r="M190" s="8"/>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B191" s="9"/>
       <c r="C191" s="22"/>
       <c r="E191" s="8"/>
@@ -20779,7 +20690,7 @@
       <c r="K191" s="19"/>
       <c r="M191" s="8"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B192" s="9"/>
       <c r="C192" s="22"/>
       <c r="E192" s="8"/>
